--- a/public/Medicines.xlsx
+++ b/public/Medicines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiracleTek\Documents\vuejs\myproject\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiracleTek\Documents\vuejs\myproject\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC0D6EA-639D-48C6-8B0D-A237B0AE0E80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4FB9D-FE5F-4B7F-8F90-1F60CFB5635C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="4260" windowWidth="18000" windowHeight="9360" xr2:uid="{183750A7-6FD9-42BC-B0EB-37C1413B4BC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{183750A7-6FD9-42BC-B0EB-37C1413B4BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Medicine</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>150mg</t>
+  </si>
+  <si>
+    <t>Nexum</t>
+  </si>
+  <si>
+    <t>500mg</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD20EFB-45C9-4BCE-A7A2-169C0DE21A63}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +438,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
